--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_4_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_4_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1379067685597674</v>
+        <v>0.114007849175961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1379067685597674</v>
+        <v>0.114007849175961</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.609838846006209</v>
+        <v>6.410139581699365</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.2347698949436339, 14.454447586956052]</t>
+          <t>[-1.3679987433737129, 14.188277906772443]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.09658951947787764</v>
+        <v>0.1038949703561953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09658951947787764</v>
+        <v>0.1038949703561953</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.58494764505431</v>
+        <v>-1.207579158136618</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.144737390980774, -0.02515789912784605]</t>
+          <t>[-3.2202110883643122, 0.8050527720910772]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04656641004795081</v>
+        <v>0.2331817098504823</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04656641004795081</v>
+        <v>0.2331817098504823</v>
       </c>
       <c r="T2" t="n">
-        <v>12.1644253615984</v>
+        <v>11.33206094503551</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.639322400461339, 16.689528322735455]</t>
+          <t>[7.113085541490888, 15.551036348580128]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.289591652271383e-06</v>
+        <v>2.324690633104254e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.289591652271383e-06</v>
+        <v>2.324690633104254e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.766486486486521</v>
+        <v>4.401201201201228</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09153153153153148</v>
+        <v>-2.934134134134149</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.44144144144151</v>
+        <v>11.73653653653661</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1221999320204358</v>
+        <v>0.3650147262685978</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1221999320204358</v>
+        <v>0.3650147262685978</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.678364671706248</v>
+        <v>4.468958884772596</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.3491399357868037, 15.7058692791993]</t>
+          <t>[-3.650008307145918, 12.587926076691112]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1432024196443902</v>
+        <v>0.2734791646615795</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1432024196443902</v>
+        <v>0.2734791646615795</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8679475199106932</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.9875270117636212, 2.251631971942235]</t>
+          <t>[-4.220237578696199, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5780027095118756</v>
+        <v>0.4911004258682929</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5780027095118756</v>
+        <v>0.4911004258682929</v>
       </c>
       <c r="T3" t="n">
-        <v>14.06601837956482</v>
+        <v>13.99352544702851</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.532370361276993, 18.599666397852648]</t>
+          <t>[9.60123526391557, 18.385815630141458]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.332264401021632e-07</v>
+        <v>7.496911647031368e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.332264401021632e-07</v>
+        <v>7.496911647031368e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>3.157837837837857</v>
+        <v>3.942742742742766</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.192072072072122</v>
+        <v>-7.495795795795846</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.50774774774784</v>
+        <v>15.38128128128138</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.036109018549767</v>
+        <v>0.02553322944424818</v>
       </c>
       <c r="I4" t="n">
-        <v>0.036109018549767</v>
+        <v>0.02553322944424818</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.338119558891587</v>
+        <v>7.395265947210643</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.4495202059647614, 15.125759323747936]</t>
+          <t>[0.025630535895443174, 14.764901358525844]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06414273888120237</v>
+        <v>0.04924161025294338</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06414273888120237</v>
+        <v>0.04924161025294338</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.767315923399309</v>
+        <v>-0.9434212172942322</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.100711067507043, 1.566079220708425]</t>
+          <t>[-2.327105669325772, 0.44026323473730766]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5111443271132075</v>
+        <v>0.1764779631992908</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5111443271132075</v>
+        <v>0.1764779631992908</v>
       </c>
       <c r="T4" t="n">
-        <v>10.85402619353569</v>
+        <v>10.13464363432999</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.926788198379301, 14.781264188692075]</t>
+          <t>[6.414197362595409, 13.855089906064574]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.36735745126515e-06</v>
+        <v>1.793591542620376e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36735745126515e-06</v>
+        <v>1.793591542620376e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.791711711711727</v>
+        <v>3.43843843843846</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.697837837837872</v>
+        <v>-1.604604604604612</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.28126126126133</v>
+        <v>8.481481481481532</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2585728147207654</v>
+        <v>0.2742512521265885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2585728147207654</v>
+        <v>0.2742512521265885</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.48556747315159</v>
+        <v>4.539811250359499</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.953852179593598, 13.924987125896779]</t>
+          <t>[-3.085517738240629, 12.165140238959626]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1971279407266944</v>
+        <v>0.2367593196458067</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1971279407266944</v>
+        <v>0.2367593196458067</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.8553685703467711</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.0629742188152727, 2.9120268240481963]</t>
+          <t>[-3.98123753698166, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9596442539706722</v>
+        <v>0.5842619618857741</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9596442539706722</v>
+        <v>0.5842619618857741</v>
       </c>
       <c r="T5" t="n">
-        <v>11.71949548665055</v>
+        <v>10.49817752781318</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.934874620797821, 16.50411635250329]</t>
+          <t>[6.53826201542803, 14.45809304019833]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.148058214317516e-05</v>
+        <v>2.94656086929912e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.148058214317516e-05</v>
+        <v>2.94656086929912e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2745945945945927</v>
+        <v>3.117517517517538</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.59477477477484</v>
+        <v>-8.275175175175224</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.14396396396402</v>
+        <v>14.5102102102103</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2209883584290169</v>
+        <v>0.1454535241349654</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2209883584290169</v>
+        <v>0.1454535241349654</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.711742996175246</v>
+        <v>5.934472164402008</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.7279326792566412, 11.151418671607134]</t>
+          <t>[-1.4169183156638603, 13.285862644467876]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1475326842612816</v>
+        <v>0.1109543668884871</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1475326842612816</v>
+        <v>0.1109543668884871</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06918422260157708</v>
+        <v>-0.01257894956392303</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.8554215510105427, 2.993789996213697]</t>
+          <t>[-1.6038160694001942, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9622096367094359</v>
+        <v>0.9873671892498992</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9622096367094359</v>
+        <v>0.9873671892498992</v>
       </c>
       <c r="T6" t="n">
-        <v>8.404577917563449</v>
+        <v>12.20865865209709</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[4.5271061150000325, 12.282049720126865]</t>
+          <t>[7.905975253920871, 16.511342050273317]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.340713354797579e-05</v>
+        <v>8.257814387846452e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>7.340713354797579e-05</v>
+        <v>8.257814387846452e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>22.60828828828842</v>
+        <v>0.04584584584584661</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.96774774774782</v>
+        <v>-5.753653653653687</v>
       </c>
       <c r="Z6" t="n">
-        <v>33.24882882882903</v>
+        <v>5.84534534534538</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1776625471809652</v>
+        <v>0.2497360214101214</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1776625471809652</v>
+        <v>0.2497360214101214</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.61323980807885</v>
+        <v>4.756162410905331</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.8636859354735495, 13.09016555163125]</t>
+          <t>[-2.4240475617105997, 11.936372383521261]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1375073283953299</v>
+        <v>0.188870756940787</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1375073283953299</v>
+        <v>0.188870756940787</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.05660527303765495</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.5095004380026564, 3.704500646575352]</t>
+          <t>[-2.9560531475219274, 3.0692636935972373]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.70033963064283</v>
+        <v>0.9699800256990658</v>
       </c>
       <c r="S7" t="n">
-        <v>0.70033963064283</v>
+        <v>0.9699800256990658</v>
       </c>
       <c r="T7" t="n">
-        <v>10.96153090365407</v>
+        <v>11.18056627138209</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.723586942955902, 15.199474864352243]</t>
+          <t>[7.093732941902594, 15.267399600861587]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.565029825931433e-06</v>
+        <v>1.655830717206541e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.565029825931433e-06</v>
+        <v>1.655830717206541e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.68612612612625</v>
+        <v>22.69369369369383</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.381981981982038</v>
+        <v>11.71361361361368</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.99027027027046</v>
+        <v>33.67377377377398</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2992319490512285</v>
+        <v>0.2081182194645048</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2992319490512285</v>
+        <v>0.2081182194645048</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.980584819055698</v>
+        <v>5.616067831998543</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.694030430585018, 13.655200068696415]</t>
+          <t>[-2.8846821601208665, 14.116817824117952]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2536159004917529</v>
+        <v>0.1900148984629209</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2536159004917529</v>
+        <v>0.1900148984629209</v>
       </c>
       <c r="P8" t="n">
-        <v>0.748447499053424</v>
+        <v>0.7107106503616558</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.383710942363427, 3.880605940470275]</t>
+          <t>[-2.352263568453619, 3.7736848691769307]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.632648402092598</v>
+        <v>0.6425131538930606</v>
       </c>
       <c r="S8" t="n">
-        <v>0.632648402092598</v>
+        <v>0.6425131538930606</v>
       </c>
       <c r="T8" t="n">
-        <v>11.52966105034653</v>
+        <v>11.11211032478386</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.031903527771328, 16.027418572921736]</t>
+          <t>[6.677584911675677, 15.546635737892043]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.336076426942782e-06</v>
+        <v>7.865843863141819e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.336076426942782e-06</v>
+        <v>7.865843863141819e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.13693693693705</v>
+        <v>20.30970970970983</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.741261261261311</v>
+        <v>9.146246246246296</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.5326126126128</v>
+        <v>31.47317317317337</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3579072000543719</v>
+        <v>0.0682990784113211</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3579072000543719</v>
+        <v>0.0682990784113211</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.43679143998342</v>
+        <v>5.84098184730445</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.086191450692311, 12.959774330659151]</t>
+          <t>[-0.7755408678500402, 12.45750456245894]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.300017381555977</v>
+        <v>0.08215723532689267</v>
       </c>
       <c r="O9" t="n">
-        <v>0.300017381555977</v>
+        <v>0.08215723532689267</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.226474072814388, 4.050421759583236]</t>
+          <t>[-2.0440793041375036, 3.918342789162044]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5612961292497545</v>
+        <v>0.5298564117865499</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5612961292497545</v>
+        <v>0.5298564117865499</v>
       </c>
       <c r="T9" t="n">
-        <v>10.55249885039991</v>
+        <v>10.38220548677448</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.234371753644638, 14.870625947155172]</t>
+          <t>[6.932433501197393, 13.831977472351564]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.192181642628576e-05</v>
+        <v>2.530155056579275e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.192181642628576e-05</v>
+        <v>2.530155056579275e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5419819819821</v>
+        <v>19.4844844844846</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.123423423423473</v>
+        <v>8.619019019019071</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.96054054054072</v>
+        <v>30.34994994995014</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.86000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1610356331233056</v>
+        <v>0.009778805324169859</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1610356331233056</v>
+        <v>0.009778805324169859</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.765847780159929</v>
+        <v>9.304930740050645</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.7941354139313397, 16.325830974251197]</t>
+          <t>[1.349070481260238, 17.260790998841053]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1609319133635465</v>
+        <v>0.02290904812996275</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1609319133635465</v>
+        <v>0.02290904812996275</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6226580034141938</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.4843425388748104, 3.729658545703198]</t>
+          <t>[-0.04402632347373103, 1.4402897250691948]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.6883920332454636</v>
+        <v>0.06457905770143313</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6883920332454636</v>
+        <v>0.06457905770143313</v>
       </c>
       <c r="T10" t="n">
-        <v>11.71478449218871</v>
+        <v>11.71946078328428</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.758229228896321, 16.6713397554811]</t>
+          <t>[7.584434322524562, 15.854487244043991]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.034162876252132e-05</v>
+        <v>8.444425867448757e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.034162876252132e-05</v>
+        <v>8.444425867448757e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>20.59459459459471</v>
+        <v>20.35555555555568</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.290450450450505</v>
+        <v>17.65065065065076</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.89873873873892</v>
+        <v>23.0604604604606</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2639084368448779</v>
+        <v>0.1576789758679571</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2639084368448779</v>
+        <v>0.1576789758679571</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.460287933537294</v>
+        <v>6.826589087044209</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.109087874900583, 11.02966374197517]</t>
+          <t>[-2.3991603670113584, 16.052338541099775]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1782669237397896</v>
+        <v>0.1431127768971061</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1782669237397896</v>
+        <v>0.1431127768971061</v>
       </c>
       <c r="P11" t="n">
-        <v>1.427710775505272</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.6604213424378482, 4.515842893448392]</t>
+          <t>[-1.8176582119868865, 4.119605982184813]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.3567377222219672</v>
+        <v>0.4389549855683206</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3567377222219672</v>
+        <v>0.4389549855683206</v>
       </c>
       <c r="T11" t="n">
-        <v>8.798036996473755</v>
+        <v>12.66183634100344</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.014082309017789, 12.58199168392972]</t>
+          <t>[7.746875485500468, 17.57679719650642]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.622347431469052e-05</v>
+        <v>4.895495152146268e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.622347431469052e-05</v>
+        <v>4.895495152146268e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>18.07515515515532</v>
+        <v>19.12168168168186</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.57916916916923</v>
+        <v>8.061101101101176</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.57114114114141</v>
+        <v>30.18226226226254</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2580209539710075</v>
+        <v>0.04784706581576736</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2580209539710075</v>
+        <v>0.04784706581576736</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.622562123549705</v>
+        <v>8.391419488745843</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.6218569422044107, 13.866981189303822]</t>
+          <t>[0.03625883690133591, 16.74658014059035]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1763748890530681</v>
+        <v>0.04905522534364315</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1763748890530681</v>
+        <v>0.04905522534364315</v>
       </c>
       <c r="P12" t="n">
-        <v>1.641552918091964</v>
+        <v>1.779921363295117</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.496894998106848, 4.780000834290776]</t>
+          <t>[0.37107901213573147, 3.1887637144545034]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2977500063883909</v>
+        <v>0.01444080866618713</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2977500063883909</v>
+        <v>0.01444080866618713</v>
       </c>
       <c r="T12" t="n">
-        <v>14.05422300400941</v>
+        <v>12.23395351910391</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.323737840633967, 18.78470816738485]</t>
+          <t>[7.5991879563204705, 16.868719081887356]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.299224322628191e-07</v>
+        <v>3.185983095788103e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.299224322628191e-07</v>
+        <v>3.185983095788103e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>17.27909909909926</v>
+        <v>16.7783383383385</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.595805805805858</v>
+        <v>11.52924924924936</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.96239239239266</v>
+        <v>22.02742742742764</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3011245448328776</v>
+        <v>0.2062318498798199</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3011245448328776</v>
+        <v>0.2062318498798199</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.3171888636567</v>
+        <v>5.494323840290535</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.08079458741369, 11.71517231472709]</t>
+          <t>[-2.5572566647132877, 13.545904345294359]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2460337905592649</v>
+        <v>0.17612232290408</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2460337905592649</v>
+        <v>0.17612232290408</v>
       </c>
       <c r="P13" t="n">
-        <v>2.018921405009657</v>
+        <v>2.094395102393196</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.1132370364071944, 5.151079846426508]</t>
+          <t>[-0.9937370155499243, 5.182527220336316]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.2008168468276776</v>
+        <v>0.1787333861467966</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2008168468276776</v>
+        <v>0.1787333861467966</v>
       </c>
       <c r="T13" t="n">
-        <v>11.4244554531666</v>
+        <v>13.2985002407482</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.539199144879468, 15.309711761453734]</t>
+          <t>[8.998825262266223, 17.598175219230185]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.07032947347119e-07</v>
+        <v>1.424187656695608e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.07032947347119e-07</v>
+        <v>1.424187656695608e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>15.87429429429444</v>
+        <v>15.60666666666681</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.214414414414453</v>
+        <v>4.10085085085089</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.53417417417443</v>
+        <v>27.11248248248274</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1068684082836537</v>
+        <v>0.04826896880054388</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1068684082836537</v>
+        <v>0.04826896880054388</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.03099872489193</v>
+        <v>6.288599900439126</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.7014286486466794, 13.76342609843054]</t>
+          <t>[-0.36175227066685345, 12.938952071545106]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1232059517794413</v>
+        <v>0.06324357423180471</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1232059517794413</v>
+        <v>0.06324357423180471</v>
       </c>
       <c r="P14" t="n">
-        <v>2.132131951084965</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8868159442565782, 5.151079846426508]</t>
+          <t>[0.2327105669325773, 4.1321849317487365]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1617878396599197</v>
+        <v>0.02907933632738113</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1617878396599197</v>
+        <v>0.02907933632738113</v>
       </c>
       <c r="T14" t="n">
-        <v>10.93685326866961</v>
+        <v>11.13151065157891</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.996526967570489, 14.877179569768728]</t>
+          <t>[7.633313281403009, 14.62970802175482]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.261042902545029e-06</v>
+        <v>7.699183535159193e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.261042902545029e-06</v>
+        <v>7.699183535159193e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>15.452852852853</v>
+        <v>15.27859859859874</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.214414414414453</v>
+        <v>8.014234234234312</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.69129129129154</v>
+        <v>22.54296296296317</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1733103569158569</v>
+        <v>0.09544320170480136</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1733103569158569</v>
+        <v>0.09544320170480136</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.963060090629933</v>
+        <v>6.417727481051667</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.9356485175800326, 11.8617686988399]</t>
+          <t>[-1.6779779743532224, 14.513432936456557]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1542753388856846</v>
+        <v>0.1173444756404161</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1542753388856846</v>
+        <v>0.1173444756404161</v>
       </c>
       <c r="P15" t="n">
-        <v>2.333395144107735</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 5.471843060306547]</t>
+          <t>[-0.8365001460008861, 5.427816736832816]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.1468540544308039</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.1468540544308039</v>
       </c>
       <c r="T15" t="n">
-        <v>9.651272669459054</v>
+        <v>10.56500843720899</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.952149814187527, 13.350395524730581]</t>
+          <t>[6.4633352371700425, 14.66668163724794]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.918873884067864e-06</v>
+        <v>4.908824827509761e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>3.918873884067864e-06</v>
+        <v>4.908824827509761e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>14.70362362362376</v>
+        <v>14.85679679679694</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.020330330330358</v>
+        <v>3.186946946946977</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.38691691691716</v>
+        <v>26.5266466466469</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4842310938804365</v>
+        <v>0.2463497243562669</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4842310938804365</v>
+        <v>0.2463497243562669</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>3.516958704195345</v>
+        <v>5.869780579954277</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-4.510261714770223, 11.544179123160912]</t>
+          <t>[-3.5957481153580293, 15.335309275266583]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.3822300846358693</v>
+        <v>0.2181272796168099</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3822300846358693</v>
+        <v>0.2181272796168099</v>
       </c>
       <c r="P16" t="n">
-        <v>2.496921488438735</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 5.597632555945778]</t>
+          <t>[-0.754736973835386, 5.522158858562239]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1118103046381176</v>
+        <v>0.1330785767356073</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1118103046381176</v>
+        <v>0.1330785767356073</v>
       </c>
       <c r="T16" t="n">
-        <v>10.98879095586543</v>
+        <v>12.25216171420009</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.850713800618221, 15.12686811111263]</t>
+          <t>[7.332870229839351, 17.171453198560833]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.859417794764951e-06</v>
+        <v>8.710131660150111e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>2.859417794764951e-06</v>
+        <v>8.710131660150111e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>14.09487487487501</v>
+        <v>14.52872872872887</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.552062062062085</v>
+        <v>2.835445445445474</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.63768768768793</v>
+        <v>26.22201201201226</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03672627764199154</v>
+        <v>0.1211105815319753</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03672627764199154</v>
+        <v>0.1211105815319753</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>8.737943497588335</v>
+        <v>6.791226162210126</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.11383511122384249, 17.362051883952827]</t>
+          <t>[-1.9079684275794282, 15.49042075199968]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.04717434859258351</v>
+        <v>0.1228734730937484</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04717434859258351</v>
+        <v>0.1228734730937484</v>
       </c>
       <c r="P17" t="n">
-        <v>2.698184681461504</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.226447582482502, 4.1699217804405055]</t>
+          <t>[0.6352369529781168, 4.83660610732843]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.000598308194783792</v>
+        <v>0.01185036151027563</v>
       </c>
       <c r="S17" t="n">
-        <v>0.000598308194783792</v>
+        <v>0.01185036151027563</v>
       </c>
       <c r="T17" t="n">
-        <v>12.53520837395079</v>
+        <v>11.38320460463184</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.8378977018267335, 17.232519046074852]</t>
+          <t>[6.754345163191692, 16.012064046071977]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.616501961760775e-06</v>
+        <v>1.075413266327097e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>2.616501961760775e-06</v>
+        <v>1.075413266327097e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>13.34564564564577</v>
+        <v>13.21645645645658</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.866906906906981</v>
+        <v>5.38968968968974</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.82438438438456</v>
+        <v>21.04322322322342</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1531199370941531</v>
+        <v>0.2434059598918861</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1531199370941531</v>
+        <v>0.2434059598918861</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>5.718739334423844</v>
+        <v>5.045649958271475</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-1.8677929288430501, 13.305271597690739]</t>
+          <t>[-2.686407818570409, 12.777707735113358]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1359502990250117</v>
+        <v>0.1953959663772418</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1359502990250117</v>
+        <v>0.1953959663772418</v>
       </c>
       <c r="P18" t="n">
-        <v>2.698184681461504</v>
+        <v>2.773658378845043</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.21384214258669232, 5.6102115055097]</t>
+          <t>[-0.3207632138800385, 5.868079971570124]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.06853876088938926</v>
+        <v>0.07771679948206889</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06853876088938926</v>
+        <v>0.07771679948206889</v>
       </c>
       <c r="T18" t="n">
-        <v>10.84056860724891</v>
+        <v>10.19980979466339</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[6.692787953301263, 14.988349261196554]</t>
+          <t>[5.9528347443944085, 14.446784844932367]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>3.800890061800288e-06</v>
+        <v>1.578644023925158e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>3.800890061800288e-06</v>
+        <v>1.578644023925158e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>13.34564564564577</v>
+        <v>13.07585585585598</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.50523523523526</v>
+        <v>1.546606606606623</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.18605605605628</v>
+        <v>24.60510510510533</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2644738304923995</v>
+        <v>0.1890790164170973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2644738304923995</v>
+        <v>0.1890790164170973</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>5.044085423802488</v>
+        <v>5.480721077582542</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-3.1728199435992623, 13.26099079120424]</t>
+          <t>[-2.8378923890944208, 13.799334544259505]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.222727726139109</v>
+        <v>0.1912053108212932</v>
       </c>
       <c r="O19" t="n">
-        <v>0.222727726139109</v>
+        <v>0.1912053108212932</v>
       </c>
       <c r="P19" t="n">
-        <v>2.761079429281119</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 5.836632597660316]</t>
+          <t>[-0.5408948312486928, 5.7360010011489315]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.07726699849657903</v>
+        <v>0.1024638816272672</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07726699849657903</v>
+        <v>0.1024638816272672</v>
       </c>
       <c r="T19" t="n">
-        <v>13.32808694943328</v>
+        <v>12.76192111279536</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[8.949877935320036, 17.706295963546527]</t>
+          <t>[8.53996989699339, 16.983872328597325]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.992731735178666e-07</v>
+        <v>2.309895770213899e-07</v>
       </c>
       <c r="W19" t="n">
-        <v>1.992731735178666e-07</v>
+        <v>2.309895770213899e-07</v>
       </c>
       <c r="X19" t="n">
-        <v>13.11151151151163</v>
+        <v>13.73199199199212</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.662352352352372</v>
+        <v>2.038708708708729</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.5606706706709</v>
+        <v>25.42527527527551</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.39000000000022</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08968100828398795</v>
+        <v>0.3045924539288658</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08968100828398795</v>
+        <v>0.3045924539288658</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>5.643119851545496</v>
+        <v>4.92698708113055</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-0.7037256428913512, 11.989965345982343]</t>
+          <t>[-3.1959306443536413, 13.049904806614741]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.08005613861155902</v>
+        <v>0.2281968397811238</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08005613861155902</v>
+        <v>0.2281968397811238</v>
       </c>
       <c r="P20" t="n">
-        <v>-2.993789996213697</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-4.566158691704083, -1.4214213007233107]</t>
+          <t>[-6.163685286322316, 0.05031579825569121]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.000388343631043897</v>
+        <v>0.05366606542368935</v>
       </c>
       <c r="S20" t="n">
-        <v>0.000388343631043897</v>
+        <v>0.05366606542368935</v>
       </c>
       <c r="T20" t="n">
-        <v>9.099944490480919</v>
+        <v>10.55798463130158</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[5.496657596328127, 12.70323138463371]</t>
+          <t>[6.020555795943695, 15.09541346665947]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6.892562982585559e-06</v>
+        <v>2.591813310637292e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>6.892562982585559e-06</v>
+        <v>2.591813310637292e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>11.14478478478489</v>
+        <v>11.38864864864876</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.291431431431485</v>
+        <v>-0.1874674674674637</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.99813813813829</v>
+        <v>22.96476476476498</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_4_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_4_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.114007849175961</v>
+        <v>0.05659509170597621</v>
       </c>
       <c r="I2" t="n">
-        <v>0.114007849175961</v>
+        <v>0.05659509170597621</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.410139581699365</v>
+        <v>6.916715401348556</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.3679987433737129, 14.188277906772443]</t>
+          <t>[0.10305475844285183, 13.73037604425426]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1038949703561953</v>
+        <v>0.04677406190115163</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1038949703561953</v>
+        <v>0.04677406190115163</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.207579158136618</v>
+        <v>-1.471737098979002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.2202110883643122, 0.8050527720910772]</t>
+          <t>[-2.779947853627004, -0.16352634433099977]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2331817098504823</v>
+        <v>0.02831859753591659</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2331817098504823</v>
+        <v>0.02831859753591659</v>
       </c>
       <c r="T2" t="n">
-        <v>11.33206094503551</v>
+        <v>12.16611444452862</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.113085541490888, 15.551036348580128]</t>
+          <t>[8.267764693312303, 16.06446419574494]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.324690633104254e-06</v>
+        <v>1.174653125879388e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.324690633104254e-06</v>
+        <v>1.174653125879388e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.401201201201228</v>
+        <v>5.352252252252281</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.934134134134149</v>
+        <v>0.5946946946946952</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.73653653653661</v>
+        <v>10.10980980980987</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3650147262685978</v>
+        <v>0.2084655117275169</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3650147262685978</v>
+        <v>0.2084655117275169</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.468958884772596</v>
+        <v>5.689626730159246</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.650008307145918, 12.587926076691112]</t>
+          <t>[-2.797771491910945, 14.177024952229436]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2734791646615795</v>
+        <v>0.1837110911750142</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2734791646615795</v>
+        <v>0.1837110911750142</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.220237578696199, 2.0566582537014266]</t>
+          <t>[-4.1007375578389285, 2.11326352673908]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4911004258682929</v>
+        <v>0.5227243855657688</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4911004258682929</v>
+        <v>0.5227243855657688</v>
       </c>
       <c r="T3" t="n">
-        <v>13.99352544702851</v>
+        <v>12.37349053345861</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.60123526391557, 18.385815630141458]</t>
+          <t>[7.897299751234346, 16.84968131568288]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.496911647031368e-08</v>
+        <v>1.362607821242534e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>7.496911647031368e-08</v>
+        <v>1.362607821242534e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.942742742742766</v>
+        <v>3.613913913913933</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.495795795795846</v>
+        <v>-7.68528528528533</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.38128128128138</v>
+        <v>14.9131131131132</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02553322944424818</v>
+        <v>0.09994205516624988</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02553322944424818</v>
+        <v>0.09994205516624988</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.395265947210643</v>
+        <v>5.770105936404966</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.025630535895443174, 14.764901358525844]</t>
+          <t>[-1.5493624347510941, 13.089574307561026]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.04924161025294338</v>
+        <v>0.11934216756154</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04924161025294338</v>
+        <v>0.11934216756154</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9434212172942322</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.327105669325772, 0.44026323473730766]</t>
+          <t>[-4.031553335237351, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1764779631992908</v>
+        <v>0.5133444227527217</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1764779631992908</v>
+        <v>0.5133444227527217</v>
       </c>
       <c r="T4" t="n">
-        <v>10.13464363432999</v>
+        <v>10.03823051347798</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.414197362595409, 13.855089906064574]</t>
+          <t>[6.327753604855342, 13.748707422100626]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.793591542620376e-06</v>
+        <v>2.036977431174591e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.793591542620376e-06</v>
+        <v>2.036977431174591e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>3.43843843843846</v>
+        <v>3.613913913913933</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.604604604604612</v>
+        <v>-7.433683683683727</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.481481481481532</v>
+        <v>14.66151151151159</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2742512521265885</v>
+        <v>0.5967110876385511</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2742512521265885</v>
+        <v>0.5967110876385511</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.539811250359499</v>
+        <v>3.361001110275454</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.085517738240629, 12.165140238959626]</t>
+          <t>[-5.880145060282793, 12.602147280833702]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2367593196458067</v>
+        <v>0.4676445231940181</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2367593196458067</v>
+        <v>0.4676445231940181</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.8553685703467711</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.98123753698166, 2.270500396288118]</t>
+          <t>[-3.578711150936121, 2.698184681461504]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.5842619618857741</v>
+        <v>0.778825366008348</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5842619618857741</v>
+        <v>0.778825366008348</v>
       </c>
       <c r="T5" t="n">
-        <v>10.49817752781318</v>
+        <v>12.22447523467971</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.53826201542803, 14.45809304019833]</t>
+          <t>[7.462612079252031, 16.98633839010739]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.94656086929912e-06</v>
+        <v>5.203084050720008e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.94656086929912e-06</v>
+        <v>5.203084050720008e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>3.117517517517538</v>
+        <v>1.601101101101111</v>
       </c>
       <c r="Y5" t="n">
-        <v>-8.275175175175224</v>
+        <v>-9.81246246246252</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.5102102102103</v>
+        <v>13.01466466466474</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1454535241349654</v>
+        <v>0.3786862500244971</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1454535241349654</v>
+        <v>0.3786862500244971</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.934472164402008</v>
+        <v>4.457386998456662</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.4169183156638603, 13.285862644467876]</t>
+          <t>[-4.071969472687177, 12.986743469600501]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1109543668884871</v>
+        <v>0.2981631339922741</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1109543668884871</v>
+        <v>0.2981631339922741</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01257894956392303</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.6038160694001942, 1.5786581702723481]</t>
+          <t>[-3.402605857041197, 2.698184681461504]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9873671892498992</v>
+        <v>0.8171604673869508</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9873671892498992</v>
+        <v>0.8171604673869508</v>
       </c>
       <c r="T6" t="n">
-        <v>12.20865865209709</v>
+        <v>12.29427947459937</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.905975253920871, 16.511342050273317]</t>
+          <t>[7.697247189734533, 16.89131175946421]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.257814387846452e-07</v>
+        <v>2.515265859370786e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>8.257814387846452e-07</v>
+        <v>2.515265859370786e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04584584584584661</v>
+        <v>1.280880880880886</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.753653653653687</v>
+        <v>-9.812462462462522</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.84534534534538</v>
+        <v>12.37422422422429</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2497360214101214</v>
+        <v>0.4144560960623016</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2497360214101214</v>
+        <v>0.4144560960623016</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.756162410905331</v>
+        <v>4.442669518384013</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.4240475617105997, 11.936372383521261]</t>
+          <t>[-4.308497113072356, 13.193836149840383]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.188870756940787</v>
+        <v>0.3120137997295496</v>
       </c>
       <c r="O7" t="n">
-        <v>0.188870756940787</v>
+        <v>0.3120137997295496</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05660527303765495</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.9560531475219274, 3.0692636935972373]</t>
+          <t>[-3.4780795544247356, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9699800256990658</v>
+        <v>0.8284463641943864</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9699800256990658</v>
+        <v>0.8284463641943864</v>
       </c>
       <c r="T7" t="n">
-        <v>11.18056627138209</v>
+        <v>10.8149986501173</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.093732941902594, 15.267399600861587]</t>
+          <t>[5.9986205577043386, 15.63137674253026]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.655830717206541e-06</v>
+        <v>4.423837805789255e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.655830717206541e-06</v>
+        <v>4.423837805789255e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>22.69369369369383</v>
+        <v>1.235135135135142</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.71361361361368</v>
+        <v>-10.17842842842849</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.67377377377398</v>
+        <v>12.64869869869877</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2081182194645048</v>
+        <v>0.1331822606063688</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2081182194645048</v>
+        <v>0.1331822606063688</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.616067831998543</v>
+        <v>4.977666364320016</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.8846821601208665, 14.116817824117952]</t>
+          <t>[-1.1828981084215044, 11.138230837061537]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1900148984629209</v>
+        <v>0.1106407831704352</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1900148984629209</v>
+        <v>0.1106407831704352</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7107106503616558</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.352263568453619, 3.7736848691769307]</t>
+          <t>[-1.522052897234694, 1.8113687372049263]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6425131538930606</v>
+        <v>0.8620138909719088</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6425131538930606</v>
+        <v>0.8620138909719088</v>
       </c>
       <c r="T8" t="n">
-        <v>11.11211032478386</v>
+        <v>11.60220126347097</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.677584911675677, 15.546635737892043]</t>
+          <t>[8.080133415808808, 15.12426911113314]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.865843863141819e-06</v>
+        <v>3.553564908997942e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>7.865843863141819e-06</v>
+        <v>3.553564908997942e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>20.30970970970983</v>
+        <v>22.32392392392405</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.146246246246296</v>
+        <v>16.26261261261271</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.47317317317337</v>
+        <v>28.3852352352354</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0682990784113211</v>
+        <v>0.08455137297012805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0682990784113211</v>
+        <v>0.08455137297012805</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.84098184730445</v>
+        <v>6.404756392607302</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.7755408678500402, 12.45750456245894]</t>
+          <t>[-0.9043656896378653, 13.71387847485247]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.08215723532689267</v>
+        <v>0.08436727700428537</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08215723532689267</v>
+        <v>0.08436727700428537</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9371317425122703</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0440793041375036, 3.918342789162044]</t>
+          <t>[-0.9245527929483481, 3.075553168379197]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5298564117865499</v>
+        <v>0.2845530522244011</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5298564117865499</v>
+        <v>0.2845530522244011</v>
       </c>
       <c r="T9" t="n">
-        <v>10.38220548677448</v>
+        <v>12.04616642326478</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.932433501197393, 13.831977472351564]</t>
+          <t>[8.115791614286898, 15.97654123224266]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.530155056579275e-07</v>
+        <v>1.7277076680422e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.530155056579275e-07</v>
+        <v>1.7277076680422e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>19.4844844844846</v>
+        <v>18.93873873873885</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.619019019019071</v>
+        <v>11.66516516516523</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.34994994995014</v>
+        <v>26.21231231231247</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.90000000000014</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009778805324169859</v>
+        <v>0.1619518320457087</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009778805324169859</v>
+        <v>0.1619518320457087</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>9.304930740050645</v>
+        <v>6.367805512467491</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.349070481260238, 17.260790998841053]</t>
+          <t>[-2.7289321660770867, 15.46454319101207]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02290904812996275</v>
+        <v>0.1654460383245615</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02290904812996275</v>
+        <v>0.1654460383245615</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6981317007977319</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.04402632347373103, 1.4402897250691948]</t>
+          <t>[-2.427737265837157, 3.773684869176929]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06457905770143313</v>
+        <v>0.6641019232996066</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06457905770143313</v>
+        <v>0.6641019232996066</v>
       </c>
       <c r="T10" t="n">
-        <v>11.71946078328428</v>
+        <v>12.25936466581943</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.584434322524562, 15.854487244043991]</t>
+          <t>[7.593112773029304, 16.925616558609548]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.444425867448757e-07</v>
+        <v>3.464802259989241e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.444425867448757e-07</v>
+        <v>3.464802259989241e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>20.35555555555568</v>
+        <v>20.40260260260272</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.65065065065076</v>
+        <v>9.126276276276327</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.0604604604606</v>
+        <v>31.67892892892911</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1576789758679571</v>
+        <v>0.2996499298634498</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1576789758679571</v>
+        <v>0.2996499298634498</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.826589087044209</v>
+        <v>4.824558959896515</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.3991603670113584, 16.052338541099775]</t>
+          <t>[-3.0672186601683205, 12.71633657996135]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1431127768971061</v>
+        <v>0.2246064070876286</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1431127768971061</v>
+        <v>0.2246064070876286</v>
       </c>
       <c r="P11" t="n">
-        <v>1.150973885098963</v>
+        <v>1.427710775505272</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.8176582119868865, 4.119605982184813]</t>
+          <t>[-1.6792897667837323, 4.534711317794276]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4389549855683206</v>
+        <v>0.3596381270644144</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4389549855683206</v>
+        <v>0.3596381270644144</v>
       </c>
       <c r="T11" t="n">
-        <v>12.66183634100344</v>
+        <v>10.54785475466741</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.746875485500468, 17.57679719650642]</t>
+          <t>[6.229441853625303, 14.866267655709507]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.895495152146268e-06</v>
+        <v>1.202078237350079e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.895495152146268e-06</v>
+        <v>1.202078237350079e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>19.12168168168186</v>
+        <v>18.13697697697715</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.061101101101176</v>
+        <v>6.531191191191255</v>
       </c>
       <c r="Z11" t="n">
-        <v>30.18226226226254</v>
+        <v>29.74276276276305</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04784706581576736</v>
+        <v>0.6574727727583642</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04784706581576736</v>
+        <v>0.6574727727583642</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.391419488745843</v>
+        <v>2.839853567588507</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.03625883690133591, 16.74658014059035]</t>
+          <t>[-5.031837420166381, 10.711544555343394]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.04905522534364315</v>
+        <v>0.4712194431876569</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04905522534364315</v>
+        <v>0.4712194431876569</v>
       </c>
       <c r="P12" t="n">
-        <v>1.779921363295117</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 3.1887637144545034]</t>
+          <t>[-1.6101055441821561, 4.641632389087622]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01444080866618713</v>
+        <v>0.3339599821605908</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01444080866618713</v>
+        <v>0.3339599821605908</v>
       </c>
       <c r="T12" t="n">
-        <v>12.23395351910391</v>
+        <v>12.55942127062358</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.5991879563204705, 16.868719081887356]</t>
+          <t>[8.215894588762986, 16.902947952484183]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.185983095788103e-06</v>
+        <v>5.697860496756135e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.185983095788103e-06</v>
+        <v>5.697860496756135e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>16.7783383383385</v>
+        <v>17.80806806806824</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.52924924924936</v>
+        <v>6.131801801801862</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.02742742742764</v>
+        <v>29.48433433433462</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2062318498798199</v>
+        <v>0.1477815053426333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2062318498798199</v>
+        <v>0.1477815053426333</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.494323840290535</v>
+        <v>4.831330214293576</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.5572566647132877, 13.545904345294359]</t>
+          <t>[-1.656020217390914, 11.318680645978066]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.17612232290408</v>
+        <v>0.140607368171588</v>
       </c>
       <c r="O13" t="n">
-        <v>0.17612232290408</v>
+        <v>0.140607368171588</v>
       </c>
       <c r="P13" t="n">
-        <v>2.094395102393196</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.9937370155499243, 5.182527220336316]</t>
+          <t>[-0.5031579825569237, 5.6982641524571624]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1787333861467966</v>
+        <v>0.09847218870082908</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1787333861467966</v>
+        <v>0.09847218870082908</v>
       </c>
       <c r="T13" t="n">
-        <v>13.2985002407482</v>
+        <v>9.550025317971357</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.998825262266223, 17.598175219230185]</t>
+          <t>[6.087460817684599, 13.012589818258116]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.424187656695608e-07</v>
+        <v>1.421690706049361e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.424187656695608e-07</v>
+        <v>1.421690706049361e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.60666666666681</v>
+        <v>13.76718718718732</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.10085085085089</v>
+        <v>2.184894894894915</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.11248248248274</v>
+        <v>25.34947947947973</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04826896880054388</v>
+        <v>0.2875398002854473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04826896880054388</v>
+        <v>0.2875398002854473</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.288599900439126</v>
+        <v>4.188239773731473</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.36175227066685345, 12.938952071545106]</t>
+          <t>[-2.648061752501887, 11.024541299964833]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06324357423180471</v>
+        <v>0.2236331611047746</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06324357423180471</v>
+        <v>0.2236331611047746</v>
       </c>
       <c r="P14" t="n">
-        <v>2.182447749340657</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 4.1321849317487365]</t>
+          <t>[-1.1761317842268086, 4.937237703839815]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.02907933632738113</v>
+        <v>0.2217217512288896</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02907933632738113</v>
+        <v>0.2217217512288896</v>
       </c>
       <c r="T14" t="n">
-        <v>11.13151065157891</v>
+        <v>10.86219624990496</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.633313281403009, 14.62970802175482]</t>
+          <t>[7.172190928105163, 14.55220157170476]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.699183535159193e-08</v>
+        <v>3.981263649865951e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>7.699183535159193e-08</v>
+        <v>3.981263649865951e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>15.27859859859874</v>
+        <v>16.4454454454456</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.014234234234312</v>
+        <v>5.027607607607655</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.54296296296317</v>
+        <v>27.86328328328355</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09544320170480136</v>
+        <v>0.08910660144394211</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09544320170480136</v>
+        <v>0.08910660144394211</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.417727481051667</v>
+        <v>6.975992721721261</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-1.6779779743532224, 14.513432936456557]</t>
+          <t>[-1.0385987691057155, 14.990584212548239]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1173444756404161</v>
+        <v>0.08639542897974417</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1173444756404161</v>
+        <v>0.08639542897974417</v>
       </c>
       <c r="P15" t="n">
-        <v>2.295658295415965</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8365001460008861, 5.427816736832816]</t>
+          <t>[0.04402632347373103, 3.9686585874177362]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1468540544308039</v>
+        <v>0.04528063374802938</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1468540544308039</v>
+        <v>0.04528063374802938</v>
       </c>
       <c r="T15" t="n">
-        <v>10.56500843720899</v>
+        <v>10.2530309777106</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.4633352371700425, 14.66668163724794]</t>
+          <t>[5.886173401329373, 14.619888554091826]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.908824827509761e-06</v>
+        <v>2.255148870888846e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.908824827509761e-06</v>
+        <v>2.255148870888846e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>14.85679679679694</v>
+        <v>15.97557557557573</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.186946946946977</v>
+        <v>8.645605605605692</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.5266466466469</v>
+        <v>23.30554554554577</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2463497243562669</v>
+        <v>0.1562494275503075</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2463497243562669</v>
+        <v>0.1562494275503075</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.869780579954277</v>
+        <v>5.608496917231893</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.5957481153580293, 15.335309275266583]</t>
+          <t>[-2.3738500211369598, 13.590843855600745]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2181272796168099</v>
+        <v>0.1639124935005396</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2181272796168099</v>
+        <v>0.1639124935005396</v>
       </c>
       <c r="P16" t="n">
-        <v>2.383710942363427</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 5.522158858562239]</t>
+          <t>[-0.4842895582110378, 5.402658837704969]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1330785767356073</v>
+        <v>0.0993556948754466</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1330785767356073</v>
+        <v>0.0993556948754466</v>
       </c>
       <c r="T16" t="n">
-        <v>12.25216171420009</v>
+        <v>11.13843835350868</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.332870229839351, 17.171453198560833]</t>
+          <t>[7.068818914052862, 15.208057792964496]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>8.710131660150111e-06</v>
+        <v>1.642100170062832e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>8.710131660150111e-06</v>
+        <v>1.642100170062832e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>14.52872872872887</v>
+        <v>14.28404404404418</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.835445445445474</v>
+        <v>3.289089089089124</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.22201201201226</v>
+        <v>25.27899899899924</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1211105815319753</v>
+        <v>0.03922822686434413</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1211105815319753</v>
+        <v>0.03922822686434413</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.791226162210126</v>
+        <v>7.58851626095996</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.9079684275794282, 15.49042075199968]</t>
+          <t>[0.28649666634315096, 14.890535855576768]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1228734730937484</v>
+        <v>0.04200559895646871</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1228734730937484</v>
+        <v>0.04200559895646871</v>
       </c>
       <c r="P17" t="n">
-        <v>2.735921530153274</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 4.83660610732843]</t>
+          <t>[1.2264475824825012, 4.2453954778240455]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.01185036151027563</v>
+        <v>0.0006787163668722229</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01185036151027563</v>
+        <v>0.0006787163668722229</v>
       </c>
       <c r="T17" t="n">
-        <v>11.38320460463184</v>
+        <v>12.05022670846671</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.754345163191692, 16.012064046071977]</t>
+          <t>[7.923943647816529, 16.176509769116898]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.075413266327097e-05</v>
+        <v>4.673789069098433e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.075413266327097e-05</v>
+        <v>4.673789069098433e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>13.21645645645658</v>
+        <v>13.25033033033046</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.38968968968974</v>
+        <v>7.611891891891965</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.04322322322342</v>
+        <v>18.88876876876896</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2434059598918861</v>
+        <v>0.5712539077021358</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2434059598918861</v>
+        <v>0.5712539077021358</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>5.045649958271475</v>
+        <v>2.757696417562626</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-2.686407818570409, 12.777707735113358]</t>
+          <t>[-4.116431419647659, 9.63182425477291]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1953959663772418</v>
+        <v>0.4233422701735552</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1953959663772418</v>
+        <v>0.4233422701735552</v>
       </c>
       <c r="P18" t="n">
-        <v>2.773658378845043</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.3207632138800385, 5.868079971570124]</t>
+          <t>[-0.1509473947670772, 6.100790538502701]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.07771679948206889</v>
+        <v>0.06162095446948901</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07771679948206889</v>
+        <v>0.06162095446948901</v>
       </c>
       <c r="T18" t="n">
-        <v>10.19980979466339</v>
+        <v>9.955942111340724</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[5.9528347443944085, 14.446784844932367]</t>
+          <t>[6.231988176236255, 13.679896046445192]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>1.578644023925158e-05</v>
+        <v>2.530847076576137e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>1.578644023925158e-05</v>
+        <v>2.530847076576137e-06</v>
       </c>
       <c r="X18" t="n">
-        <v>13.07585585585598</v>
+        <v>12.3575775775777</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.546606606606623</v>
+        <v>0.6813113113113189</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.60510510510533</v>
+        <v>24.03384384384408</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1890790164170973</v>
+        <v>0.153375101899209</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1890790164170973</v>
+        <v>0.153375101899209</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>5.480721077582542</v>
+        <v>5.874185028490721</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-2.8378923890944208, 13.799334544259505]</t>
+          <t>[-2.177089384058431, 13.925459441039873]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1912053108212932</v>
+        <v>0.1486587723391841</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1912053108212932</v>
+        <v>0.1486587723391841</v>
       </c>
       <c r="P19" t="n">
-        <v>2.597553084950119</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, 5.7360010011489315]</t>
+          <t>[-0.08176317216549922, 5.402658837704969]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.05692724251054648</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.05692724251054648</v>
       </c>
       <c r="T19" t="n">
-        <v>12.76192111279536</v>
+        <v>11.63628509216984</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[8.53996989699339, 16.983872328597325]</t>
+          <t>[7.383750136796442, 15.888820047543243]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.309895770213899e-07</v>
+        <v>1.649464717701221e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>2.309895770213899e-07</v>
+        <v>1.649464717701221e-06</v>
       </c>
       <c r="X19" t="n">
-        <v>13.73199199199212</v>
+        <v>13.53225225225238</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.038708708708729</v>
+        <v>3.289089089089122</v>
       </c>
       <c r="Z19" t="n">
-        <v>25.42527527527551</v>
+        <v>23.77541541541564</v>
       </c>
     </row>
     <row r="20">
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.41000000000022</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3045924539288658</v>
+        <v>0.0493449138649571</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3045924539288658</v>
+        <v>0.0493449138649571</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>4.92698708113055</v>
+        <v>6.86050426373521</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-3.1959306443536413, 13.049904806614741]</t>
+          <t>[0.40498517150736824, 13.316023355963052]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.2281968397811238</v>
+        <v>0.03777273295174899</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2281968397811238</v>
+        <v>0.03777273295174899</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.056684744033312</v>
+        <v>3.138447916198812</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-6.163685286322316, 0.05031579825569121]</t>
+          <t>[1.8302371615508104, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.05366606542368935</v>
+        <v>1.606472489346089e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05366606542368935</v>
+        <v>1.606472489346089e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>10.55798463130158</v>
+        <v>11.98481437177524</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[6.020555795943695, 15.09541346665947]</t>
+          <t>[8.093000932711957, 15.876627810838523]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.591813310637292e-05</v>
+        <v>1.562218934214599e-07</v>
       </c>
       <c r="W20" t="n">
-        <v>2.591813310637292e-05</v>
+        <v>1.562218934214599e-07</v>
       </c>
       <c r="X20" t="n">
-        <v>11.38864864864876</v>
+        <v>11.74674674674686</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.1874674674674637</v>
+        <v>6.860100100100168</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.96476476476498</v>
+        <v>16.63339339339355</v>
       </c>
     </row>
   </sheetData>
